--- a/coctel_app/data/recetas.xlsx
+++ b/coctel_app/data/recetas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamon\Documents\Aplicación coctelería\coctel_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25B03F6-0A1B-4D2E-BC67-42F96068531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB289E9D-A139-41BD-931B-ACDDDDA0FAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{732455C0-6376-41B9-84D1-84E385ACD0F1}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="223">
   <si>
     <t>Ramazzotti Spritz</t>
   </si>
@@ -658,18 +658,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kIr8hsVTCzg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=38eV09PNEgE</t>
-  </si>
-  <si>
-    <t>Sonora 5 Estrellas - Amor de Feria</t>
-  </si>
-  <si>
-    <t>Tata Barahona - Margarita</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nGAzYTMVhTo</t>
   </si>
   <si>
     <t xml:space="preserve">Bad Bunny - Moscow Mule </t>
@@ -830,6 +818,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=by4EHmvME1c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ijcG_nOOYxE</t>
+  </si>
+  <si>
+    <t>Fito Páez - Dos Días En La Vida</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JpQa1ueDo60</t>
+  </si>
+  <si>
+    <t>Tata Barahona - Hay Helado a Cien</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U4zY_qF8E4k</t>
+  </si>
+  <si>
+    <t>Los de Alicante - Iba acabándose el vino (cover de una canción inédita de Charly García)</t>
   </si>
 </sst>
 </file>
@@ -1299,9 +1305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FAA63B-DEDB-48F1-9CCA-3BF0BF1CD86F}">
   <dimension ref="A1:BQ144"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B57" sqref="B57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1860,7 @@
         <v>300</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H56" si="0">SUM(I5:BK5)</f>
+        <f t="shared" ref="H5:H57" si="0">SUM(I5:BK5)</f>
         <v>270</v>
       </c>
       <c r="I5" s="4"/>
@@ -6117,7 +6123,7 @@
     </row>
     <row r="50" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>55</v>
@@ -6783,13 +6789,28 @@
       <c r="A57" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="4">
+        <v>300</v>
+      </c>
+      <c r="E57" s="4">
+        <v>120</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="4">
+        <v>180</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -14210,7 +14231,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -16134,8 +16155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DB3A21-6E97-43C0-9768-D0796C62C1D9}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16370,10 +16391,10 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -16382,10 +16403,10 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -16434,10 +16455,10 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -16472,10 +16493,10 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -16499,7 +16520,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -16526,10 +16547,10 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -16538,10 +16559,10 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -16582,10 +16603,10 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -16598,10 +16619,10 @@
     </row>
     <row r="50" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -16612,10 +16633,10 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -16626,13 +16647,17 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -16640,10 +16665,10 @@
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -16672,10 +16697,10 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -16684,15 +16709,14 @@
     <hyperlink ref="D16" r:id="rId2" xr:uid="{BACC756F-19DA-4B1C-9E12-0747B1CAABDD}"/>
     <hyperlink ref="D13" r:id="rId3" xr:uid="{D84AE9F0-F152-4207-8B06-9AB57F5C56B4}"/>
     <hyperlink ref="D23" r:id="rId4" xr:uid="{3FD358A9-4820-4EA4-8811-EA968F4FD6B2}"/>
-    <hyperlink ref="D25" r:id="rId5" xr:uid="{B7EBB3F2-4278-487F-AEF6-3F8D131FF4A0}"/>
-    <hyperlink ref="D26" r:id="rId6" xr:uid="{32196BC9-FD1E-473D-9290-57AF52083CFD}"/>
-    <hyperlink ref="D32" r:id="rId7" xr:uid="{19B9FE21-4587-4894-8D89-CB23DADDF355}"/>
-    <hyperlink ref="D43" r:id="rId8" xr:uid="{07B80ECB-0CB9-42CB-85EB-81F2C72E2BE2}"/>
-    <hyperlink ref="D48" r:id="rId9" xr:uid="{5BDB33EF-5D25-4A2A-AE66-6E535BB2AB15}"/>
-    <hyperlink ref="D57" r:id="rId10" xr:uid="{A1D21DCA-8992-4109-A027-BC3EF09820CB}"/>
-    <hyperlink ref="D54" r:id="rId11" xr:uid="{7460DF6A-5F37-46B5-B4BD-49D04167EF8B}"/>
-    <hyperlink ref="D51" r:id="rId12" xr:uid="{A09BB8BD-7C80-4570-9EEF-062801EFDD9C}"/>
-    <hyperlink ref="D36" r:id="rId13" xr:uid="{1AB4F8DF-4D5D-4363-BD40-374FF347CF4E}"/>
+    <hyperlink ref="D32" r:id="rId5" xr:uid="{19B9FE21-4587-4894-8D89-CB23DADDF355}"/>
+    <hyperlink ref="D43" r:id="rId6" xr:uid="{07B80ECB-0CB9-42CB-85EB-81F2C72E2BE2}"/>
+    <hyperlink ref="D48" r:id="rId7" xr:uid="{5BDB33EF-5D25-4A2A-AE66-6E535BB2AB15}"/>
+    <hyperlink ref="D57" r:id="rId8" xr:uid="{A1D21DCA-8992-4109-A027-BC3EF09820CB}"/>
+    <hyperlink ref="D54" r:id="rId9" xr:uid="{7460DF6A-5F37-46B5-B4BD-49D04167EF8B}"/>
+    <hyperlink ref="D51" r:id="rId10" xr:uid="{A09BB8BD-7C80-4570-9EEF-062801EFDD9C}"/>
+    <hyperlink ref="D36" r:id="rId11" xr:uid="{1AB4F8DF-4D5D-4363-BD40-374FF347CF4E}"/>
+    <hyperlink ref="D53" r:id="rId12" xr:uid="{6BEED4DE-88A7-485A-ACD6-FD3720C7C78B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coctel_app/data/recetas.xlsx
+++ b/coctel_app/data/recetas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamon\Documents\Aplicación coctelería\coctel_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB289E9D-A139-41BD-931B-ACDDDDA0FAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553C597-4A2D-4BF3-B4DF-B17E5938C728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{732455C0-6376-41B9-84D1-84E385ACD0F1}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <sheet name="recurso" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">complementos!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">receta!$A$1:$BQ$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">recurso!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="225">
   <si>
     <t>Ramazzotti Spritz</t>
   </si>
@@ -836,6 +838,12 @@
   </si>
   <si>
     <t>Los de Alicante - Iba acabándose el vino (cover de una canción inédita de Charly García)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IXzo_5w34SI</t>
+  </si>
+  <si>
+    <t>Ángel Parra Trío y Valentín Trujillo - Crepúsculo</t>
   </si>
 </sst>
 </file>
@@ -943,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -957,9 +965,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1305,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FAA63B-DEDB-48F1-9CCA-3BF0BF1CD86F}">
   <dimension ref="A1:BQ144"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B57" sqref="B57:G57"/>
     </sheetView>
@@ -1559,68 +1570,66 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="4">
-        <v>300</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <f>SUM(I2:BK2)</f>
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4">
+        <v>30</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4">
-        <v>150</v>
-      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="4">
-        <v>90</v>
-      </c>
+      <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
+      <c r="AD2" s="4">
+        <v>30</v>
+      </c>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-      <c r="AH2" s="4">
-        <v>30</v>
-      </c>
+      <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AN2" s="4">
+        <v>30</v>
+      </c>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
@@ -1636,15 +1645,21 @@
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
+      <c r="BD2" s="4">
+        <v>15</v>
+      </c>
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
+      <c r="BK2" s="4">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="4">
+        <v>1</v>
+      </c>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
@@ -1653,7 +1668,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>54</v>
@@ -1694,15 +1709,15 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="4">
-        <v>90</v>
-      </c>
+      <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+      <c r="AD3" s="4">
+        <v>90</v>
+      </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -1747,29 +1762,29 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E4" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="4">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(I4:BK4)</f>
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1781,14 +1796,16 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4">
+        <v>30</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4">
+        <v>30</v>
+      </c>
       <c r="W4" s="4"/>
-      <c r="X4" s="4">
-        <v>90</v>
-      </c>
+      <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -1798,10 +1815,10 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4">
-        <v>180</v>
-      </c>
+      <c r="AH4" s="4">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
@@ -1839,101 +1856,103 @@
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E5" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="4">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H57" si="0">SUM(I5:BK5)</f>
-        <v>270</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
+        <f>SUM(I5:BK5)</f>
         <v>150</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4">
-        <v>90</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4">
+      <c r="I5" s="3">
+        <v>60</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3">
         <v>30</v>
       </c>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
@@ -1954,7 +1973,7 @@
         <v>300</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I6:BK6)</f>
         <v>270</v>
       </c>
       <c r="I6" s="4"/>
@@ -1971,7 +1990,9 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="U6" s="4">
+        <v>90</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
@@ -1980,9 +2001,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
-        <v>90</v>
-      </c>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -2027,131 +2046,133 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E7" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="I7" s="4">
+        <f>SUM(I7:BK7)</f>
+        <v>200</v>
+      </c>
+      <c r="I7" s="3">
         <v>60</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4">
-        <v>15</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4">
-        <v>180</v>
-      </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4">
-        <v>15</v>
-      </c>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
-      <c r="BL7" s="4"/>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
-      <c r="BO7" s="4"/>
-      <c r="BP7" s="4"/>
-      <c r="BQ7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3">
+        <v>60</v>
+      </c>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3">
+        <v>20</v>
+      </c>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <f>SUM(I8:BK8)</f>
+        <v>180</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>60</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>45</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2175,14 +2196,14 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4">
-        <v>180</v>
-      </c>
+      <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
+      <c r="AN8" s="4">
+        <v>15</v>
+      </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -2194,7 +2215,9 @@
       <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
+      <c r="AZ8" s="4">
+        <v>120</v>
+      </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
       <c r="BC8" s="4"/>
@@ -2207,129 +2230,135 @@
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
+      <c r="BM8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>1</v>
+      </c>
       <c r="BO8" s="4"/>
-      <c r="BP8" s="4"/>
-      <c r="BQ8" s="4"/>
+      <c r="BP8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E9" s="4">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="4">
-        <v>300</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+        <f>SUM(I9:BK9)</f>
+        <v>120</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3">
         <v>60</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4">
-        <v>180</v>
-      </c>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4"/>
-      <c r="BP9" s="4"/>
-      <c r="BQ9" s="4"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3">
+        <v>60</v>
+      </c>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f>SUM(I10:BK10)</f>
+        <v>200</v>
       </c>
       <c r="I10" s="4">
         <v>60</v>
@@ -2360,13 +2389,15 @@
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4">
+      <c r="AJ10" s="4">
         <v>120</v>
       </c>
+      <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
+      <c r="AN10" s="4">
+        <v>20</v>
+      </c>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
@@ -2390,7 +2421,9 @@
       <c r="BI10" s="4"/>
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
+      <c r="BL10" s="4">
+        <v>1</v>
+      </c>
       <c r="BM10" s="4"/>
       <c r="BN10" s="4"/>
       <c r="BO10" s="4"/>
@@ -2399,133 +2432,131 @@
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E11" s="4">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="4">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="H11" s="4">
         <f>SUM(I11:BK11)</f>
-        <v>200</v>
-      </c>
-      <c r="I11" s="4">
+        <v>150</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>60</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4">
-        <v>120</v>
-      </c>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4">
-        <v>20</v>
-      </c>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
-      <c r="BP11" s="4"/>
-      <c r="BQ11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3">
+        <v>60</v>
+      </c>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3">
+        <v>30</v>
+      </c>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E12" s="4">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="4">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>SUM(I12:BK12)</f>
+        <v>60</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>60</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>30</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2540,7 +2571,9 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
+      <c r="AB12" s="4">
+        <v>30</v>
+      </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -2548,20 +2581,14 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
-      <c r="AJ12" s="4">
-        <v>50</v>
-      </c>
+      <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
-      <c r="AO12" s="4">
-        <v>30</v>
-      </c>
+      <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="4">
-        <v>30</v>
-      </c>
+      <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -2578,9 +2605,7 @@
       <c r="BE12" s="4"/>
       <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
-      <c r="BH12" s="4">
-        <v>30</v>
-      </c>
+      <c r="BH12" s="4"/>
       <c r="BI12" s="4"/>
       <c r="BJ12" s="4"/>
       <c r="BK12" s="4"/>
@@ -2593,137 +2618,135 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E13" s="4">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="4">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4">
+        <f>SUM(I13:BK13)</f>
+        <v>120</v>
+      </c>
+      <c r="I13" s="3">
         <v>60</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3">
         <v>15</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4">
-        <v>90</v>
-      </c>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4">
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3">
+        <v>30</v>
+      </c>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3">
         <v>15</v>
       </c>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
-      <c r="BL13" s="4"/>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="4"/>
-      <c r="BO13" s="4"/>
-      <c r="BP13" s="4"/>
-      <c r="BQ13" s="4"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E14" s="4">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="4">
-        <v>240</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>235</v>
+        <f>SUM(I14:BK14)</f>
+        <v>120</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>60</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4">
-        <v>100</v>
-      </c>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -2750,9 +2773,7 @@
         <v>30</v>
       </c>
       <c r="AO14" s="4"/>
-      <c r="AP14" s="4">
-        <v>60</v>
-      </c>
+      <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
@@ -2766,18 +2787,16 @@
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
       <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
+      <c r="BD14" s="4">
+        <v>30</v>
+      </c>
       <c r="BE14" s="4"/>
       <c r="BF14" s="4"/>
       <c r="BG14" s="4"/>
-      <c r="BH14" s="4">
-        <v>30</v>
-      </c>
+      <c r="BH14" s="4"/>
       <c r="BI14" s="4"/>
       <c r="BJ14" s="4"/>
-      <c r="BK14" s="4">
-        <v>15</v>
-      </c>
+      <c r="BK14" s="4"/>
       <c r="BL14" s="4"/>
       <c r="BM14" s="4"/>
       <c r="BN14" s="4"/>
@@ -2787,13 +2806,13 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>68</v>
+      <c r="C15" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D15" s="4">
         <v>400</v>
@@ -2808,17 +2827,17 @@
         <v>240</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I15" s="4">
-        <v>60</v>
-      </c>
+        <f>SUM(I15:BK15)</f>
+        <v>225</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>60</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -2843,16 +2862,16 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
+      <c r="AM15" s="4">
+        <v>150</v>
+      </c>
       <c r="AN15" s="4">
         <v>15</v>
       </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="4">
-        <v>90</v>
-      </c>
+      <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
@@ -2864,9 +2883,7 @@
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
       <c r="BC15" s="4"/>
-      <c r="BD15" s="4">
-        <v>30</v>
-      </c>
+      <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4"/>
@@ -2883,225 +2900,227 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E16" s="4">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G16" s="4">
+        <v>240</v>
+      </c>
       <c r="H16" s="4">
         <f>SUM(I16:BK16)</f>
-        <v>135</v>
-      </c>
-      <c r="I16" s="4">
+        <v>195</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>60</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4">
-        <v>30</v>
-      </c>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4">
-        <v>30</v>
-      </c>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="4">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3">
+        <v>120</v>
+      </c>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3">
         <v>15</v>
       </c>
-      <c r="BL16" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="4"/>
-      <c r="BO16" s="4"/>
-      <c r="BP16" s="4"/>
-      <c r="BQ16" s="4"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="4">
+        <v>300</v>
+      </c>
+      <c r="E17" s="4">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="4">
+        <v>180</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM(I17:BK17)</f>
+        <v>150</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3">
+        <v>30</v>
+      </c>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3">
+        <v>15</v>
+      </c>
+      <c r="AO17" s="3">
         <v>60</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="4">
-        <v>200</v>
-      </c>
-      <c r="E17" s="4">
-        <v>80</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I17" s="4">
-        <v>60</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4">
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3">
         <v>15</v>
       </c>
-      <c r="AO17" s="4">
-        <v>30</v>
-      </c>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4">
-        <v>30</v>
-      </c>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4">
-        <v>15</v>
-      </c>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
-      <c r="BP17" s="4"/>
-      <c r="BQ17" s="4"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4">
+        <v>300</v>
+      </c>
+      <c r="E18" s="4">
+        <v>120</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="4">
+        <v>180</v>
+      </c>
+      <c r="H18" s="4">
+        <f>SUM(I18:BK18)</f>
+        <v>180</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="4">
-        <v>200</v>
-      </c>
-      <c r="E18" s="4">
-        <v>80</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I18" s="4">
-        <v>60</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -3131,27 +3150,29 @@
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
-      <c r="AT18" s="4">
-        <v>90</v>
-      </c>
+      <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
+      <c r="AV18" s="4">
+        <v>30</v>
+      </c>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
+      <c r="AY18" s="4">
+        <v>30</v>
+      </c>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="BE18" s="4"/>
       <c r="BF18" s="4"/>
@@ -3159,9 +3180,7 @@
       <c r="BH18" s="4"/>
       <c r="BI18" s="4"/>
       <c r="BJ18" s="4"/>
-      <c r="BK18" s="4">
-        <v>15</v>
-      </c>
+      <c r="BK18" s="4"/>
       <c r="BL18" s="4"/>
       <c r="BM18" s="4"/>
       <c r="BN18" s="4"/>
@@ -3171,103 +3190,101 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4">
+        <v>300</v>
+      </c>
+      <c r="E19" s="4">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="4">
+        <v>180</v>
+      </c>
+      <c r="H19" s="4">
+        <f>SUM(I19:BK19)</f>
+        <v>150</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="4">
-        <v>200</v>
-      </c>
-      <c r="E19" s="4">
-        <v>80</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3">
         <v>60</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4">
-        <v>30</v>
-      </c>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4">
-        <v>60</v>
-      </c>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4">
-        <v>15</v>
-      </c>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4">
-        <v>15</v>
-      </c>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
-      <c r="BP19" s="4"/>
-      <c r="BQ19" s="4"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>60</v>
@@ -3286,7 +3303,7 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I20:BK20)</f>
         <v>120</v>
       </c>
       <c r="I20" s="4"/>
@@ -3311,10 +3328,10 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4">
+      <c r="AC20" s="4">
         <v>30</v>
       </c>
+      <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
@@ -3365,7 +3382,7 @@
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>60</v>
@@ -3384,16 +3401,16 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I21:BK21)</f>
         <v>120</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>60</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4">
-        <v>30</v>
-      </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -3409,9 +3426,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="4">
-        <v>30</v>
-      </c>
+      <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
@@ -3441,7 +3456,7 @@
       <c r="BB21" s="4"/>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="BE21" s="4"/>
       <c r="BF21" s="4"/>
@@ -3449,12 +3464,8 @@
       <c r="BH21" s="4"/>
       <c r="BI21" s="4"/>
       <c r="BJ21" s="4"/>
-      <c r="BK21" s="4">
-        <v>15</v>
-      </c>
-      <c r="BL21" s="4">
-        <v>1</v>
-      </c>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
@@ -3463,35 +3474,37 @@
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4">
+        <v>500</v>
+      </c>
+      <c r="E22" s="4">
+        <v>200</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4">
+        <v>300</v>
+      </c>
+      <c r="H22" s="4">
+        <f>SUM(I22:BK22)</f>
+        <v>240</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="4">
-        <v>200</v>
-      </c>
-      <c r="E22" s="4">
-        <v>80</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4">
-        <v>60</v>
-      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -3513,14 +3526,14 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="AI22" s="4">
+        <v>180</v>
+      </c>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="4">
-        <v>30</v>
-      </c>
+      <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3536,21 +3549,15 @@
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
       <c r="BC22" s="4"/>
-      <c r="BD22" s="4">
-        <v>30</v>
-      </c>
+      <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
       <c r="BF22" s="4"/>
       <c r="BG22" s="4"/>
       <c r="BH22" s="4"/>
       <c r="BI22" s="4"/>
       <c r="BJ22" s="4"/>
-      <c r="BK22" s="4">
-        <v>15</v>
-      </c>
-      <c r="BL22" s="4">
-        <v>1</v>
-      </c>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
       <c r="BO22" s="4"/>
@@ -3559,34 +3566,34 @@
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E23" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="4">
+        <v>300</v>
+      </c>
+      <c r="H23" s="4">
+        <f>SUM(I23:BK23)</f>
         <v>240</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="I23" s="4">
-        <v>45</v>
-      </c>
-      <c r="J23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>60</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3601,9 +3608,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="4">
-        <v>15</v>
-      </c>
+      <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
@@ -3653,38 +3658,36 @@
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E24" s="4">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="4">
-        <v>240</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>195</v>
+        <f>SUM(I24:BK24)</f>
+        <v>170</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4">
-        <v>45</v>
-      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4">
+        <v>30</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -3703,25 +3706,27 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+      <c r="AG24" s="4">
+        <v>30</v>
+      </c>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
+      <c r="AN24" s="4">
+        <v>15</v>
+      </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
-      <c r="AU24" s="4">
-        <v>120</v>
-      </c>
+      <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
@@ -3730,7 +3735,9 @@
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
       <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
+      <c r="BD24" s="4">
+        <v>20</v>
+      </c>
       <c r="BE24" s="4"/>
       <c r="BF24" s="4"/>
       <c r="BG24" s="4"/>
@@ -3747,35 +3754,35 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E25" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I25" s="4"/>
+        <f>SUM(I25:BK25)</f>
+        <v>240</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45</v>
+      </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4">
-        <v>60</v>
-      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -3789,7 +3796,9 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="Y25" s="4">
+        <v>15</v>
+      </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
@@ -3799,14 +3808,14 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
+      <c r="AI25" s="4">
+        <v>180</v>
+      </c>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="4">
-        <v>30</v>
-      </c>
+      <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3814,21 +3823,15 @@
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
-      <c r="AV25" s="4">
-        <v>30</v>
-      </c>
+      <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
-      <c r="AY25" s="4">
-        <v>30</v>
-      </c>
+      <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
       <c r="BB25" s="4"/>
       <c r="BC25" s="4"/>
-      <c r="BD25" s="4">
-        <v>30</v>
-      </c>
+      <c r="BD25" s="4"/>
       <c r="BE25" s="4"/>
       <c r="BF25" s="4"/>
       <c r="BG25" s="4"/>
@@ -3845,34 +3848,36 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4">
+        <v>500</v>
+      </c>
+      <c r="E26" s="4">
         <v>200</v>
       </c>
-      <c r="E26" s="4">
-        <v>80</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G26" s="4">
+        <v>300</v>
+      </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <f>SUM(I26:BK26)</f>
+        <v>225</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <v>60</v>
+      </c>
       <c r="K26" s="4"/>
-      <c r="L26" s="4">
-        <v>45</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3886,9 +3891,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="4">
-        <v>20</v>
-      </c>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -3901,9 +3904,11 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
+      <c r="AM26" s="4">
+        <v>150</v>
+      </c>
       <c r="AN26" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
@@ -3920,9 +3925,7 @@
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
       <c r="BC26" s="4"/>
-      <c r="BD26" s="4">
-        <v>15</v>
-      </c>
+      <c r="BD26" s="4"/>
       <c r="BE26" s="4"/>
       <c r="BF26" s="4"/>
       <c r="BG26" s="4"/>
@@ -3939,34 +3942,36 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="4">
+        <v>400</v>
+      </c>
+      <c r="E27" s="4">
+        <v>160</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4">
+        <v>240</v>
+      </c>
+      <c r="H27" s="4">
+        <f>SUM(I27:BK27)</f>
         <v>200</v>
       </c>
-      <c r="E27" s="4">
-        <v>80</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>60</v>
+      </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="4">
-        <v>45</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -3980,9 +3985,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="4">
-        <v>20</v>
-      </c>
+      <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -3992,14 +3995,16 @@
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
+      <c r="AJ27" s="4">
+        <v>50</v>
+      </c>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="4">
-        <v>15</v>
-      </c>
-      <c r="AO27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4">
+        <v>30</v>
+      </c>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4">
         <v>30</v>
@@ -4016,13 +4021,13 @@
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
       <c r="BC27" s="4"/>
-      <c r="BD27" s="4">
-        <v>20</v>
-      </c>
+      <c r="BD27" s="4"/>
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
       <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
+      <c r="BH27" s="4">
+        <v>30</v>
+      </c>
       <c r="BI27" s="4"/>
       <c r="BJ27" s="4"/>
       <c r="BK27" s="4"/>
@@ -4035,38 +4040,36 @@
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D28" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E28" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="4">
+        <v>65</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <f>SUM(I28:BK28)</f>
         <v>180</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4">
+        <v>60</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4">
-        <v>60</v>
-      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -4086,9 +4089,7 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
-      <c r="AH28" s="4">
-        <v>30</v>
-      </c>
+      <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
@@ -4101,7 +4102,9 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
+      <c r="AS28" s="4">
+        <v>60</v>
+      </c>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
@@ -4112,16 +4115,18 @@
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
       <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
+      <c r="BD28" s="4">
+        <v>15</v>
+      </c>
       <c r="BE28" s="4"/>
       <c r="BF28" s="4"/>
-      <c r="BG28" s="4">
-        <v>30</v>
-      </c>
+      <c r="BG28" s="4"/>
       <c r="BH28" s="4"/>
       <c r="BI28" s="4"/>
       <c r="BJ28" s="4"/>
-      <c r="BK28" s="4"/>
+      <c r="BK28" s="4">
+        <v>15</v>
+      </c>
       <c r="BL28" s="4"/>
       <c r="BM28" s="4"/>
       <c r="BN28" s="4"/>
@@ -4131,43 +4136,43 @@
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E29" s="4">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="4">
-        <v>240</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <f>SUM(I29:BK29)</f>
+        <v>90</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4">
+      <c r="M29" s="4">
         <v>60</v>
       </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="4">
+        <v>30</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -4182,22 +4187,16 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="4">
-        <v>30</v>
-      </c>
+      <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="4">
-        <v>30</v>
-      </c>
+      <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
-      <c r="AQ29" s="4">
-        <v>60</v>
-      </c>
+      <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
@@ -4213,14 +4212,14 @@
       <c r="BD29" s="4"/>
       <c r="BE29" s="4"/>
       <c r="BF29" s="4"/>
-      <c r="BG29" s="4">
-        <v>30</v>
-      </c>
+      <c r="BG29" s="4"/>
       <c r="BH29" s="4"/>
       <c r="BI29" s="4"/>
       <c r="BJ29" s="4"/>
       <c r="BK29" s="4"/>
-      <c r="BL29" s="4"/>
+      <c r="BL29" s="4">
+        <v>1</v>
+      </c>
       <c r="BM29" s="4"/>
       <c r="BN29" s="4"/>
       <c r="BO29" s="4"/>
@@ -4229,36 +4228,34 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E30" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="4">
-        <v>180</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>SUM(I30:BK30)</f>
+        <v>110</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
-        <v>60</v>
-      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="L30" s="4">
+        <v>45</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -4272,7 +4269,9 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="Z30" s="4">
+        <v>20</v>
+      </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -4280,9 +4279,7 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
-      <c r="AH30" s="4">
-        <v>30</v>
-      </c>
+      <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
@@ -4307,7 +4304,7 @@
       <c r="BB30" s="4"/>
       <c r="BC30" s="4"/>
       <c r="BD30" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
@@ -4325,10 +4322,10 @@
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>67</v>
@@ -4344,15 +4341,15 @@
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>SUM(I31:BK31)</f>
+        <v>130</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4">
-        <v>60</v>
-      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4">
+        <v>45</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -4366,7 +4363,9 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="4">
+        <v>20</v>
+      </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -4381,11 +4380,13 @@
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
+      <c r="AQ31" s="4">
+        <v>30</v>
+      </c>
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
@@ -4399,7 +4400,7 @@
       <c r="BB31" s="4"/>
       <c r="BC31" s="4"/>
       <c r="BD31" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BE31" s="4"/>
       <c r="BF31" s="4"/>
@@ -4417,10 +4418,10 @@
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>68</v>
@@ -4438,18 +4439,18 @@
         <v>300</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <f>SUM(I32:BK32)</f>
+        <v>300</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4">
-        <v>60</v>
-      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="O32" s="4">
+        <v>270</v>
+      </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -4473,11 +4474,9 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="4">
-        <v>150</v>
-      </c>
+      <c r="AM32" s="4"/>
       <c r="AN32" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
@@ -4503,46 +4502,52 @@
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
       <c r="BL32" s="4"/>
-      <c r="BM32" s="4"/>
-      <c r="BN32" s="4"/>
-      <c r="BO32" s="4"/>
+      <c r="BM32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO32" s="4">
+        <v>1</v>
+      </c>
       <c r="BP32" s="4"/>
       <c r="BQ32" s="4"/>
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D33" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E33" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="4">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <f>SUM(I33:BK33)</f>
+        <v>150</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>60</v>
-      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="4">
+        <v>60</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -4562,16 +4567,16 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
+      <c r="AH33" s="4">
+        <v>30</v>
+      </c>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="4">
-        <v>150</v>
-      </c>
+      <c r="AM33" s="4"/>
       <c r="AN33" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
@@ -4591,7 +4596,9 @@
       <c r="BD33" s="4"/>
       <c r="BE33" s="4"/>
       <c r="BF33" s="4"/>
-      <c r="BG33" s="4"/>
+      <c r="BG33" s="4">
+        <v>30</v>
+      </c>
       <c r="BH33" s="4"/>
       <c r="BI33" s="4"/>
       <c r="BJ33" s="4"/>
@@ -4605,13 +4612,13 @@
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
-        <v>76</v>
+      <c r="C34" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D34" s="4">
         <v>400</v>
@@ -4626,8 +4633,8 @@
         <v>240</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <f>SUM(I34:BK34)</f>
+        <v>210</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4656,20 +4663,22 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
+      <c r="AH34" s="4">
+        <v>30</v>
+      </c>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="4">
-        <v>150</v>
-      </c>
+      <c r="AM34" s="4"/>
       <c r="AN34" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AO34" s="4"/>
       <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
+      <c r="AQ34" s="4">
+        <v>60</v>
+      </c>
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
@@ -4685,7 +4694,9 @@
       <c r="BD34" s="4"/>
       <c r="BE34" s="4"/>
       <c r="BF34" s="4"/>
-      <c r="BG34" s="4"/>
+      <c r="BG34" s="4">
+        <v>30</v>
+      </c>
       <c r="BH34" s="4"/>
       <c r="BI34" s="4"/>
       <c r="BJ34" s="4"/>
@@ -4699,34 +4710,34 @@
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E35" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G35" s="4">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f>SUM(I35:BK35)</f>
+        <v>225</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -4755,7 +4766,9 @@
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
+      <c r="AM35" s="4">
+        <v>150</v>
+      </c>
       <c r="AN35" s="4">
         <v>15</v>
       </c>
@@ -4770,9 +4783,7 @@
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4"/>
-      <c r="AZ35" s="4">
-        <v>120</v>
-      </c>
+      <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
       <c r="BB35" s="4"/>
       <c r="BC35" s="4"/>
@@ -4785,55 +4796,45 @@
       <c r="BJ35" s="4"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="4"/>
-      <c r="BM35" s="4">
-        <v>1</v>
-      </c>
-      <c r="BN35" s="4">
-        <v>1</v>
-      </c>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
       <c r="BO35" s="4"/>
-      <c r="BP35" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ35" s="4">
-        <v>1</v>
-      </c>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
     </row>
     <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E36" s="4">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="4">
-        <v>300</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="I36" s="4"/>
+        <f>SUM(I36:BK36)</f>
+        <v>150</v>
+      </c>
+      <c r="I36" s="4">
+        <v>60</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="4">
-        <v>270</v>
-      </c>
+      <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -4859,9 +4860,11 @@
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="4">
+        <v>15</v>
+      </c>
+      <c r="AO36" s="4">
         <v>30</v>
       </c>
-      <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
@@ -4876,57 +4879,55 @@
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
       <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
+      <c r="BD36" s="4">
+        <v>30</v>
+      </c>
       <c r="BE36" s="4"/>
       <c r="BF36" s="4"/>
       <c r="BG36" s="4"/>
       <c r="BH36" s="4"/>
       <c r="BI36" s="4"/>
       <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
+      <c r="BK36" s="4">
+        <v>15</v>
+      </c>
       <c r="BL36" s="4"/>
-      <c r="BM36" s="4">
-        <v>1</v>
-      </c>
-      <c r="BN36" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO36" s="4">
-        <v>1</v>
-      </c>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
       <c r="BP36" s="4"/>
       <c r="BQ36" s="4"/>
     </row>
     <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E37" s="4">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G37" s="4">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I37" s="4">
-        <v>60</v>
-      </c>
-      <c r="J37" s="4"/>
+        <f>SUM(I37:BK37)</f>
+        <v>90</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
+        <v>30</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -4936,11 +4937,13 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="V37" s="4">
+        <v>30</v>
+      </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
@@ -4952,17 +4955,13 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
-      <c r="AH37" s="4">
-        <v>30</v>
-      </c>
+      <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
-      <c r="AN37" s="4">
-        <v>15</v>
-      </c>
+      <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
@@ -4971,9 +4970,7 @@
       <c r="AT37" s="4"/>
       <c r="AU37" s="4"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="4">
-        <v>60</v>
-      </c>
+      <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4"/>
       <c r="AZ37" s="4"/>
@@ -4982,9 +4979,7 @@
       <c r="BC37" s="4"/>
       <c r="BD37" s="4"/>
       <c r="BE37" s="4"/>
-      <c r="BF37" s="4">
-        <v>15</v>
-      </c>
+      <c r="BF37" s="4"/>
       <c r="BG37" s="4"/>
       <c r="BH37" s="4"/>
       <c r="BI37" s="4"/>
@@ -4999,26 +4994,28 @@
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E38" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G38" s="4">
+        <v>180</v>
+      </c>
       <c r="H38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I38:BK38)</f>
         <v>120</v>
       </c>
       <c r="I38" s="4"/>
@@ -5026,17 +5023,21 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4">
-        <v>60</v>
-      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="Q38" s="4">
+        <v>60</v>
+      </c>
       <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
+      <c r="S38" s="4">
+        <v>30</v>
+      </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
+      <c r="V38" s="4">
+        <v>30</v>
+      </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -5054,9 +5055,7 @@
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AN38" s="4">
-        <v>30</v>
-      </c>
+      <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
@@ -5072,9 +5071,7 @@
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
       <c r="BC38" s="4"/>
-      <c r="BD38" s="4">
-        <v>30</v>
-      </c>
+      <c r="BD38" s="4"/>
       <c r="BE38" s="4"/>
       <c r="BF38" s="4"/>
       <c r="BG38" s="4"/>
@@ -5091,39 +5088,41 @@
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E39" s="4">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G39" s="4">
+        <v>240</v>
+      </c>
       <c r="H39" s="4">
-        <f t="shared" si="0"/>
-        <v>170</v>
+        <f>SUM(I39:BK39)</f>
+        <v>235</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4">
-        <v>30</v>
-      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+      <c r="Q39" s="4">
+        <v>100</v>
+      </c>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -5139,9 +5138,7 @@
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="4">
-        <v>30</v>
-      </c>
+      <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
@@ -5149,11 +5146,11 @@
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
       <c r="AN39" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AO39" s="4"/>
       <c r="AP39" s="4">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
@@ -5168,16 +5165,18 @@
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
       <c r="BC39" s="4"/>
-      <c r="BD39" s="4">
-        <v>20</v>
-      </c>
+      <c r="BD39" s="4"/>
       <c r="BE39" s="4"/>
       <c r="BF39" s="4"/>
       <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
+      <c r="BH39" s="4">
+        <v>30</v>
+      </c>
       <c r="BI39" s="4"/>
       <c r="BJ39" s="4"/>
-      <c r="BK39" s="4"/>
+      <c r="BK39" s="4">
+        <v>15</v>
+      </c>
       <c r="BL39" s="4"/>
       <c r="BM39" s="4"/>
       <c r="BN39" s="4"/>
@@ -5187,7 +5186,7 @@
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>58</v>
@@ -5208,29 +5207,25 @@
         <v>180</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(I40:BK40)</f>
+        <v>60</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4">
-        <v>30</v>
-      </c>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4">
+        <v>30</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="4">
-        <v>30</v>
-      </c>
+      <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="4">
-        <v>30</v>
-      </c>
+      <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
@@ -5238,7 +5233,9 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
+      <c r="AD40" s="4">
+        <v>30</v>
+      </c>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
@@ -5281,31 +5278,33 @@
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E41" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="I41" s="4"/>
+        <f>SUM(I41:BK41)</f>
+        <v>195</v>
+      </c>
+      <c r="I41" s="4">
+        <v>60</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5313,18 +5312,14 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="4">
-        <v>60</v>
-      </c>
+      <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="4">
-        <v>30</v>
-      </c>
+      <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
@@ -5336,13 +5331,17 @@
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
+      <c r="AH41" s="4">
+        <v>30</v>
+      </c>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
+      <c r="AN41" s="4">
+        <v>15</v>
+      </c>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
@@ -5351,7 +5350,9 @@
       <c r="AT41" s="4"/>
       <c r="AU41" s="4"/>
       <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
+      <c r="AW41" s="4">
+        <v>60</v>
+      </c>
       <c r="AX41" s="4"/>
       <c r="AY41" s="4"/>
       <c r="AZ41" s="4"/>
@@ -5360,7 +5361,9 @@
       <c r="BC41" s="4"/>
       <c r="BD41" s="4"/>
       <c r="BE41" s="4"/>
-      <c r="BF41" s="4"/>
+      <c r="BF41" s="4">
+        <v>15</v>
+      </c>
       <c r="BG41" s="4"/>
       <c r="BH41" s="4"/>
       <c r="BI41" s="4"/>
@@ -5375,31 +5378,31 @@
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D42" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E42" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="4">
-        <v>180</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I42:BK42)</f>
         <v>90</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="4">
+        <v>60</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5414,9 +5417,7 @@
       </c>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="4">
-        <v>30</v>
-      </c>
+      <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
@@ -5428,9 +5429,7 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
-      <c r="AH42" s="4">
-        <v>30</v>
-      </c>
+      <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
@@ -5460,7 +5459,9 @@
       <c r="BI42" s="4"/>
       <c r="BJ42" s="4"/>
       <c r="BK42" s="4"/>
-      <c r="BL42" s="4"/>
+      <c r="BL42" s="4">
+        <v>1</v>
+      </c>
       <c r="BM42" s="4"/>
       <c r="BN42" s="4"/>
       <c r="BO42" s="4"/>
@@ -5469,119 +5470,125 @@
     </row>
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E43" s="4">
-        <v>80</v>
-      </c>
-      <c r="F43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4">
+        <v>240</v>
+      </c>
       <c r="H43" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+        <f>SUM(I43:BK43)</f>
+        <v>165</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
         <v>60</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3">
+        <v>60</v>
+      </c>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3">
         <v>30</v>
       </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="4"/>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
-      <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="4"/>
-      <c r="AY43" s="4"/>
-      <c r="AZ43" s="4"/>
-      <c r="BA43" s="4"/>
-      <c r="BB43" s="4"/>
-      <c r="BC43" s="4"/>
-      <c r="BD43" s="4"/>
-      <c r="BE43" s="4"/>
-      <c r="BF43" s="4"/>
-      <c r="BG43" s="4"/>
-      <c r="BH43" s="4"/>
-      <c r="BI43" s="4"/>
-      <c r="BJ43" s="4"/>
-      <c r="BK43" s="4"/>
-      <c r="BL43" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM43" s="4"/>
-      <c r="BN43" s="4"/>
-      <c r="BO43" s="4"/>
-      <c r="BP43" s="4"/>
-      <c r="BQ43" s="4"/>
+      <c r="BD43" s="3">
+        <v>15</v>
+      </c>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
+      <c r="BO43" s="3"/>
+      <c r="BP43" s="3"/>
+      <c r="BQ43" s="3"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D44" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E44" s="4">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G44" s="4">
+        <v>240</v>
+      </c>
       <c r="H44" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(I44:BK44)</f>
+        <v>195</v>
       </c>
       <c r="I44" s="4">
         <v>60</v>
@@ -5595,9 +5602,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="4">
-        <v>30</v>
-      </c>
+      <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -5618,11 +5623,15 @@
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
-      <c r="AN44" s="4"/>
+      <c r="AN44" s="4">
+        <v>15</v>
+      </c>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
+      <c r="AR44" s="4">
+        <v>90</v>
+      </c>
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
       <c r="AU44" s="4"/>
@@ -5634,7 +5643,9 @@
       <c r="BA44" s="4"/>
       <c r="BB44" s="4"/>
       <c r="BC44" s="4"/>
-      <c r="BD44" s="4"/>
+      <c r="BD44" s="4">
+        <v>30</v>
+      </c>
       <c r="BE44" s="4"/>
       <c r="BF44" s="4"/>
       <c r="BG44" s="4"/>
@@ -5642,9 +5653,7 @@
       <c r="BI44" s="4"/>
       <c r="BJ44" s="4"/>
       <c r="BK44" s="4"/>
-      <c r="BL44" s="4">
-        <v>1</v>
-      </c>
+      <c r="BL44" s="4"/>
       <c r="BM44" s="4"/>
       <c r="BN44" s="4"/>
       <c r="BO44" s="4"/>
@@ -5653,37 +5662,35 @@
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="4">
-        <v>180</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I45:BK45)</f>
+        <v>135</v>
+      </c>
+      <c r="I45" s="4">
         <v>60</v>
       </c>
-      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4">
-        <v>30</v>
-      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -5700,9 +5707,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="4">
-        <v>30</v>
-      </c>
+      <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
@@ -5712,7 +5717,9 @@
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
+      <c r="AN45" s="4">
+        <v>30</v>
+      </c>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
@@ -5728,15 +5735,21 @@
       <c r="BA45" s="4"/>
       <c r="BB45" s="4"/>
       <c r="BC45" s="4"/>
-      <c r="BD45" s="4"/>
+      <c r="BD45" s="4">
+        <v>30</v>
+      </c>
       <c r="BE45" s="4"/>
       <c r="BF45" s="4"/>
       <c r="BG45" s="4"/>
       <c r="BH45" s="4"/>
       <c r="BI45" s="4"/>
       <c r="BJ45" s="4"/>
-      <c r="BK45" s="4"/>
-      <c r="BL45" s="4"/>
+      <c r="BK45" s="4">
+        <v>15</v>
+      </c>
+      <c r="BL45" s="4">
+        <v>1</v>
+      </c>
       <c r="BM45" s="4"/>
       <c r="BN45" s="4"/>
       <c r="BO45" s="4"/>
@@ -5745,10 +5758,10 @@
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>68</v>
@@ -5766,16 +5779,16 @@
         <v>180</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I46:BK46)</f>
+        <v>180</v>
+      </c>
+      <c r="I46" s="4">
         <v>60</v>
       </c>
-      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4">
-        <v>30</v>
-      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -5790,9 +5803,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
-      <c r="AB46" s="4">
-        <v>30</v>
-      </c>
+      <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
@@ -5801,7 +5812,9 @@
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
+      <c r="AK46" s="4">
+        <v>120</v>
+      </c>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
@@ -5837,47 +5850,49 @@
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E47" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G47" s="4">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="0"/>
-        <v>195</v>
+        <f>SUM(I47:BK47)</f>
+        <v>270</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4">
-        <v>60</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
+      <c r="Q47" s="4">
+        <v>150</v>
+      </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
+      <c r="W47" s="4">
+        <v>90</v>
+      </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -5888,16 +5903,16 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
+      <c r="AH47" s="4">
+        <v>30</v>
+      </c>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
-      <c r="AO47" s="4">
-        <v>120</v>
-      </c>
+      <c r="AO47" s="4"/>
       <c r="AP47" s="4"/>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
@@ -5918,9 +5933,7 @@
       <c r="BG47" s="4"/>
       <c r="BH47" s="4"/>
       <c r="BI47" s="4"/>
-      <c r="BJ47" s="4">
-        <v>15</v>
-      </c>
+      <c r="BJ47" s="4"/>
       <c r="BK47" s="4"/>
       <c r="BL47" s="4"/>
       <c r="BM47" s="4"/>
@@ -5931,109 +5944,107 @@
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E48" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="4">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I48:BK48)</f>
+        <v>270</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4">
         <v>150</v>
       </c>
-      <c r="I48" s="3">
-        <v>60</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3">
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4">
+        <v>90</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4">
         <v>30</v>
       </c>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3">
-        <v>30</v>
-      </c>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3">
-        <v>30</v>
-      </c>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
-      <c r="BD48" s="3"/>
-      <c r="BE48" s="3"/>
-      <c r="BF48" s="3"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="3"/>
-      <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
-      <c r="BK48" s="3"/>
-      <c r="BL48" s="3"/>
-      <c r="BM48" s="3"/>
-      <c r="BN48" s="3"/>
-      <c r="BO48" s="3"/>
-      <c r="BP48" s="3"/>
-      <c r="BQ48" s="3"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="4"/>
+      <c r="BH48" s="4"/>
+      <c r="BI48" s="4"/>
+      <c r="BJ48" s="4"/>
+      <c r="BK48" s="4"/>
+      <c r="BL48" s="4"/>
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="4"/>
+      <c r="BO48" s="4"/>
+      <c r="BP48" s="4"/>
+      <c r="BQ48" s="4"/>
     </row>
     <row r="49" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>68</v>
+      <c r="C49" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D49" s="4">
         <v>300</v>
@@ -6048,14 +6059,14 @@
         <v>180</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="I49" s="3">
-        <v>60</v>
-      </c>
+        <f>SUM(I49:BK49)</f>
+        <v>150</v>
+      </c>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="3">
+        <v>30</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -6076,7 +6087,9 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
+      <c r="AF49" s="3">
+        <v>30</v>
+      </c>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
@@ -6084,9 +6097,7 @@
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
-      <c r="AN49" s="3">
-        <v>15</v>
-      </c>
+      <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
@@ -6094,19 +6105,17 @@
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
-      <c r="AV49" s="3">
-        <v>30</v>
-      </c>
+      <c r="AV49" s="3"/>
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
-      <c r="BB49" s="3"/>
+      <c r="BB49" s="3">
+        <v>90</v>
+      </c>
       <c r="BC49" s="3"/>
-      <c r="BD49" s="3">
-        <v>15</v>
-      </c>
+      <c r="BD49" s="3"/>
       <c r="BE49" s="3"/>
       <c r="BF49" s="3"/>
       <c r="BG49" s="3"/>
@@ -6123,7 +6132,7 @@
     </row>
     <row r="50" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>55</v>
@@ -6144,740 +6153,742 @@
         <v>240</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I50" s="3">
-        <v>60</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3">
+        <f>SUM(I50:BK50)</f>
+        <v>195</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4">
+        <v>45</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4">
         <v>30</v>
       </c>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3">
-        <v>30</v>
-      </c>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
-      <c r="AQ50" s="3"/>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="3"/>
-      <c r="AU50" s="3"/>
-      <c r="AV50" s="3"/>
-      <c r="AW50" s="3"/>
-      <c r="AX50" s="3">
-        <v>60</v>
-      </c>
-      <c r="AY50" s="3"/>
-      <c r="AZ50" s="3"/>
-      <c r="BA50" s="3"/>
-      <c r="BB50" s="3"/>
-      <c r="BC50" s="3"/>
-      <c r="BD50" s="3"/>
-      <c r="BE50" s="3"/>
-      <c r="BF50" s="3">
-        <v>20</v>
-      </c>
-      <c r="BG50" s="3"/>
-      <c r="BH50" s="3"/>
-      <c r="BI50" s="3"/>
-      <c r="BJ50" s="3"/>
-      <c r="BK50" s="3"/>
-      <c r="BL50" s="3"/>
-      <c r="BM50" s="3"/>
-      <c r="BN50" s="3"/>
-      <c r="BO50" s="3"/>
-      <c r="BP50" s="3"/>
-      <c r="BQ50" s="3"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4">
+        <v>120</v>
+      </c>
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="4"/>
+      <c r="AX50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="4"/>
+      <c r="BB50" s="4"/>
+      <c r="BC50" s="4"/>
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="4"/>
+      <c r="BF50" s="4"/>
+      <c r="BG50" s="4"/>
+      <c r="BH50" s="4"/>
+      <c r="BI50" s="4"/>
+      <c r="BJ50" s="4"/>
+      <c r="BK50" s="4"/>
+      <c r="BL50" s="4"/>
+      <c r="BM50" s="4"/>
+      <c r="BN50" s="4"/>
+      <c r="BO50" s="4"/>
+      <c r="BP50" s="4"/>
+      <c r="BQ50" s="4"/>
     </row>
     <row r="51" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D51" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E51" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="4">
-        <v>180</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3">
-        <v>30</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-      <c r="AO51" s="3"/>
-      <c r="AP51" s="3"/>
-      <c r="AQ51" s="3"/>
-      <c r="AR51" s="3"/>
-      <c r="AS51" s="3"/>
-      <c r="AT51" s="3"/>
-      <c r="AU51" s="3"/>
-      <c r="AV51" s="3"/>
-      <c r="AW51" s="3"/>
-      <c r="AX51" s="3"/>
-      <c r="AY51" s="3"/>
-      <c r="AZ51" s="3"/>
-      <c r="BA51" s="3"/>
-      <c r="BB51" s="3">
+        <f>SUM(I51:BK51)</f>
+        <v>195</v>
+      </c>
+      <c r="I51" s="4">
+        <v>60</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4">
+        <v>15</v>
+      </c>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4">
         <v>90</v>
       </c>
-      <c r="BC51" s="3"/>
-      <c r="BD51" s="3"/>
-      <c r="BE51" s="3"/>
-      <c r="BF51" s="3"/>
-      <c r="BG51" s="3"/>
-      <c r="BH51" s="3"/>
-      <c r="BI51" s="3"/>
-      <c r="BJ51" s="3"/>
-      <c r="BK51" s="3"/>
-      <c r="BL51" s="3"/>
-      <c r="BM51" s="3"/>
-      <c r="BN51" s="3"/>
-      <c r="BO51" s="3"/>
-      <c r="BP51" s="3"/>
-      <c r="BQ51" s="3"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4">
+        <v>15</v>
+      </c>
+      <c r="BE51" s="4"/>
+      <c r="BF51" s="4"/>
+      <c r="BG51" s="4"/>
+      <c r="BH51" s="4"/>
+      <c r="BI51" s="4"/>
+      <c r="BJ51" s="4"/>
+      <c r="BK51" s="4">
+        <v>15</v>
+      </c>
+      <c r="BL51" s="4"/>
+      <c r="BM51" s="4"/>
+      <c r="BN51" s="4"/>
+      <c r="BO51" s="4"/>
+      <c r="BP51" s="4"/>
+      <c r="BQ51" s="4"/>
     </row>
     <row r="52" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E52" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G52" s="4">
+        <v>240</v>
+      </c>
+      <c r="H52" s="4">
+        <f>SUM(I52:BK52)</f>
         <v>180</v>
       </c>
-      <c r="H52" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4">
         <v>60</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="3"/>
-      <c r="AP52" s="3">
-        <v>60</v>
-      </c>
-      <c r="AQ52" s="3"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="3"/>
-      <c r="AT52" s="3"/>
-      <c r="AU52" s="3"/>
-      <c r="AV52" s="3"/>
-      <c r="AW52" s="3"/>
-      <c r="AX52" s="3"/>
-      <c r="AY52" s="3"/>
-      <c r="AZ52" s="3"/>
-      <c r="BA52" s="3"/>
-      <c r="BB52" s="3"/>
-      <c r="BC52" s="3"/>
-      <c r="BD52" s="3"/>
-      <c r="BE52" s="3"/>
-      <c r="BF52" s="3"/>
-      <c r="BG52" s="3"/>
-      <c r="BH52" s="3"/>
-      <c r="BI52" s="3">
-        <v>30</v>
-      </c>
-      <c r="BJ52" s="3"/>
-      <c r="BK52" s="3"/>
-      <c r="BL52" s="3"/>
-      <c r="BM52" s="3"/>
-      <c r="BN52" s="3"/>
-      <c r="BO52" s="3"/>
-      <c r="BP52" s="3"/>
-      <c r="BQ52" s="3"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4">
+        <v>90</v>
+      </c>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4">
+        <v>15</v>
+      </c>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="4"/>
+      <c r="BG52" s="4"/>
+      <c r="BH52" s="4"/>
+      <c r="BI52" s="4"/>
+      <c r="BJ52" s="4"/>
+      <c r="BK52" s="4"/>
+      <c r="BL52" s="4"/>
+      <c r="BM52" s="4"/>
+      <c r="BN52" s="4"/>
+      <c r="BO52" s="4"/>
+      <c r="BP52" s="4"/>
+      <c r="BQ52" s="4"/>
     </row>
     <row r="53" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D53" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E53" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G53" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3">
-        <v>30</v>
-      </c>
-      <c r="AM53" s="3"/>
-      <c r="AN53" s="3">
+        <f>SUM(I53:BK53)</f>
+        <v>195</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
+        <v>60</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4">
+        <v>120</v>
+      </c>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+      <c r="BF53" s="4"/>
+      <c r="BG53" s="4"/>
+      <c r="BH53" s="4"/>
+      <c r="BI53" s="4"/>
+      <c r="BJ53" s="4">
         <v>15</v>
       </c>
-      <c r="AO53" s="3">
-        <v>60</v>
-      </c>
-      <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="3"/>
-      <c r="AU53" s="3"/>
-      <c r="AV53" s="3"/>
-      <c r="AW53" s="3"/>
-      <c r="AX53" s="3"/>
-      <c r="AY53" s="3"/>
-      <c r="AZ53" s="3"/>
-      <c r="BA53" s="3"/>
-      <c r="BB53" s="3"/>
-      <c r="BC53" s="3"/>
-      <c r="BD53" s="3"/>
-      <c r="BE53" s="3">
-        <v>15</v>
-      </c>
-      <c r="BF53" s="3"/>
-      <c r="BG53" s="3"/>
-      <c r="BH53" s="3"/>
-      <c r="BI53" s="3"/>
-      <c r="BJ53" s="3"/>
-      <c r="BK53" s="3"/>
-      <c r="BL53" s="3"/>
-      <c r="BM53" s="3"/>
-      <c r="BN53" s="3"/>
-      <c r="BO53" s="3"/>
-      <c r="BP53" s="3"/>
-      <c r="BQ53" s="3"/>
+      <c r="BK53" s="4"/>
+      <c r="BL53" s="4"/>
+      <c r="BM53" s="4"/>
+      <c r="BN53" s="4"/>
+      <c r="BO53" s="4"/>
+      <c r="BP53" s="4"/>
+      <c r="BQ53" s="4"/>
     </row>
     <row r="54" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G54" s="4">
+        <v>180</v>
+      </c>
       <c r="H54" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3">
+        <f>SUM(I54:BK54)</f>
+        <v>150</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <v>60</v>
       </c>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-      <c r="AU54" s="3"/>
-      <c r="AV54" s="3"/>
-      <c r="AW54" s="3"/>
-      <c r="AX54" s="3"/>
-      <c r="AY54" s="3"/>
-      <c r="AZ54" s="3"/>
-      <c r="BA54" s="3">
-        <v>60</v>
-      </c>
-      <c r="BB54" s="3"/>
-      <c r="BC54" s="3"/>
-      <c r="BD54" s="3"/>
-      <c r="BE54" s="3"/>
-      <c r="BF54" s="3"/>
-      <c r="BG54" s="3"/>
-      <c r="BH54" s="3"/>
-      <c r="BI54" s="3"/>
-      <c r="BJ54" s="3"/>
-      <c r="BK54" s="3"/>
-      <c r="BL54" s="3"/>
-      <c r="BM54" s="3"/>
-      <c r="BN54" s="3"/>
-      <c r="BO54" s="3"/>
-      <c r="BP54" s="3"/>
-      <c r="BQ54" s="3"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4">
+        <v>30</v>
+      </c>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4">
+        <v>30</v>
+      </c>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4">
+        <v>30</v>
+      </c>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+      <c r="BG54" s="4"/>
+      <c r="BH54" s="4"/>
+      <c r="BI54" s="4"/>
+      <c r="BJ54" s="4"/>
+      <c r="BK54" s="4"/>
+      <c r="BL54" s="4"/>
+      <c r="BM54" s="4"/>
+      <c r="BN54" s="4"/>
+      <c r="BO54" s="4"/>
+      <c r="BP54" s="4"/>
+      <c r="BQ54" s="4"/>
     </row>
     <row r="55" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E55" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G55" s="4">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
+        <f>SUM(I55:BK55)</f>
+        <v>270</v>
+      </c>
+      <c r="I55" s="4">
         <v>60</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-      <c r="AH55" s="3"/>
-      <c r="AI55" s="3"/>
-      <c r="AJ55" s="3"/>
-      <c r="AK55" s="3"/>
-      <c r="AL55" s="3"/>
-      <c r="AM55" s="3"/>
-      <c r="AN55" s="3"/>
-      <c r="AO55" s="3">
-        <v>120</v>
-      </c>
-      <c r="AP55" s="3"/>
-      <c r="AQ55" s="3"/>
-      <c r="AR55" s="3"/>
-      <c r="AS55" s="3"/>
-      <c r="AT55" s="3"/>
-      <c r="AU55" s="3"/>
-      <c r="AV55" s="3"/>
-      <c r="AW55" s="3"/>
-      <c r="AX55" s="3"/>
-      <c r="AY55" s="3"/>
-      <c r="AZ55" s="3"/>
-      <c r="BA55" s="3"/>
-      <c r="BB55" s="3"/>
-      <c r="BC55" s="3"/>
-      <c r="BD55" s="3">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4">
         <v>15</v>
       </c>
-      <c r="BE55" s="3"/>
-      <c r="BF55" s="3"/>
-      <c r="BG55" s="3"/>
-      <c r="BH55" s="3"/>
-      <c r="BI55" s="3"/>
-      <c r="BJ55" s="3"/>
-      <c r="BK55" s="3"/>
-      <c r="BL55" s="3"/>
-      <c r="BM55" s="3"/>
-      <c r="BN55" s="3"/>
-      <c r="BO55" s="3"/>
-      <c r="BP55" s="3"/>
-      <c r="BQ55" s="3"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4">
+        <v>180</v>
+      </c>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4">
+        <v>15</v>
+      </c>
+      <c r="AO55" s="4"/>
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="4"/>
+      <c r="AR55" s="4"/>
+      <c r="AS55" s="4"/>
+      <c r="AT55" s="4"/>
+      <c r="AU55" s="4"/>
+      <c r="AV55" s="4"/>
+      <c r="AW55" s="4"/>
+      <c r="AX55" s="4"/>
+      <c r="AY55" s="4"/>
+      <c r="AZ55" s="4"/>
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4"/>
+      <c r="BC55" s="4"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="4"/>
+      <c r="BF55" s="4"/>
+      <c r="BG55" s="4"/>
+      <c r="BH55" s="4"/>
+      <c r="BI55" s="4"/>
+      <c r="BJ55" s="4"/>
+      <c r="BK55" s="4"/>
+      <c r="BL55" s="4"/>
+      <c r="BM55" s="4"/>
+      <c r="BN55" s="4"/>
+      <c r="BO55" s="4"/>
+      <c r="BP55" s="4"/>
+      <c r="BQ55" s="4"/>
     </row>
     <row r="56" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D56" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E56" s="4">
-        <v>160</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>65</v>
+        <v>200</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="G56" s="4">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3">
-        <v>60</v>
-      </c>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
-      <c r="AJ56" s="3"/>
-      <c r="AK56" s="3"/>
-      <c r="AL56" s="3"/>
-      <c r="AM56" s="3"/>
-      <c r="AN56" s="3"/>
-      <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
-      <c r="AQ56" s="3"/>
-      <c r="AR56" s="3">
-        <v>60</v>
-      </c>
-      <c r="AS56" s="3"/>
-      <c r="AT56" s="3"/>
-      <c r="AU56" s="3"/>
-      <c r="AV56" s="3"/>
-      <c r="AW56" s="3"/>
-      <c r="AX56" s="3"/>
-      <c r="AY56" s="3"/>
-      <c r="AZ56" s="3"/>
-      <c r="BA56" s="3"/>
-      <c r="BB56" s="3"/>
-      <c r="BC56" s="3">
-        <v>30</v>
-      </c>
-      <c r="BD56" s="3">
-        <v>15</v>
-      </c>
-      <c r="BE56" s="3"/>
-      <c r="BF56" s="3"/>
-      <c r="BG56" s="3"/>
-      <c r="BH56" s="3"/>
-      <c r="BI56" s="3"/>
-      <c r="BJ56" s="3"/>
-      <c r="BK56" s="3"/>
-      <c r="BL56" s="3"/>
-      <c r="BM56" s="3"/>
-      <c r="BN56" s="3"/>
-      <c r="BO56" s="3"/>
-      <c r="BP56" s="3"/>
-      <c r="BQ56" s="3"/>
+        <f>SUM(I56:BK56)</f>
+        <v>270</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4">
+        <v>90</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4">
+        <v>180</v>
+      </c>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+      <c r="AP56" s="4"/>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4"/>
+      <c r="AS56" s="4"/>
+      <c r="AT56" s="4"/>
+      <c r="AU56" s="4"/>
+      <c r="AV56" s="4"/>
+      <c r="AW56" s="4"/>
+      <c r="AX56" s="4"/>
+      <c r="AY56" s="4"/>
+      <c r="AZ56" s="4"/>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4"/>
+      <c r="BC56" s="4"/>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="4"/>
+      <c r="BF56" s="4"/>
+      <c r="BG56" s="4"/>
+      <c r="BH56" s="4"/>
+      <c r="BI56" s="4"/>
+      <c r="BJ56" s="4"/>
+      <c r="BK56" s="4"/>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="4"/>
+      <c r="BO56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="4"/>
     </row>
     <row r="57" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="4">
-        <v>180</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3">
+        <f>SUM(I57:BK57)</f>
+        <v>135</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4">
         <v>60</v>
       </c>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3">
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4">
         <v>30</v>
       </c>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="3">
-        <v>60</v>
-      </c>
-      <c r="AI57" s="3"/>
-      <c r="AJ57" s="3"/>
-      <c r="AK57" s="3"/>
-      <c r="AL57" s="3"/>
-      <c r="AM57" s="3"/>
-      <c r="AN57" s="3"/>
-      <c r="AO57" s="3"/>
-      <c r="AP57" s="3"/>
-      <c r="AQ57" s="3"/>
-      <c r="AR57" s="3"/>
-      <c r="AS57" s="3"/>
-      <c r="AT57" s="3"/>
-      <c r="AU57" s="3"/>
-      <c r="AV57" s="3"/>
-      <c r="AW57" s="3"/>
-      <c r="AX57" s="3"/>
-      <c r="AY57" s="3"/>
-      <c r="AZ57" s="3"/>
-      <c r="BA57" s="3"/>
-      <c r="BB57" s="3"/>
-      <c r="BC57" s="3"/>
-      <c r="BD57" s="3"/>
-      <c r="BE57" s="3"/>
-      <c r="BF57" s="3"/>
-      <c r="BG57" s="3"/>
-      <c r="BH57" s="3"/>
-      <c r="BI57" s="3"/>
-      <c r="BJ57" s="3"/>
-      <c r="BK57" s="3"/>
-      <c r="BL57" s="3"/>
-      <c r="BM57" s="3"/>
-      <c r="BN57" s="3"/>
-      <c r="BO57" s="3"/>
-      <c r="BP57" s="3"/>
-      <c r="BQ57" s="3"/>
+      <c r="AO57" s="4"/>
+      <c r="AP57" s="4"/>
+      <c r="AQ57" s="4"/>
+      <c r="AR57" s="4"/>
+      <c r="AS57" s="4"/>
+      <c r="AT57" s="4"/>
+      <c r="AU57" s="4"/>
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="4"/>
+      <c r="AX57" s="4"/>
+      <c r="AY57" s="4"/>
+      <c r="AZ57" s="4"/>
+      <c r="BA57" s="4"/>
+      <c r="BB57" s="4"/>
+      <c r="BC57" s="4"/>
+      <c r="BD57" s="4">
+        <v>30</v>
+      </c>
+      <c r="BE57" s="4"/>
+      <c r="BF57" s="4"/>
+      <c r="BG57" s="4"/>
+      <c r="BH57" s="4"/>
+      <c r="BI57" s="4"/>
+      <c r="BJ57" s="4"/>
+      <c r="BK57" s="4">
+        <v>15</v>
+      </c>
+      <c r="BL57" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM57" s="4"/>
+      <c r="BN57" s="4"/>
+      <c r="BO57" s="4"/>
+      <c r="BP57" s="4"/>
+      <c r="BQ57" s="4"/>
     </row>
     <row r="58" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -13057,7 +13068,11 @@
       <c r="BQ144" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BQ54" xr:uid="{C7FAA63B-DEDB-48F1-9CCA-3BF0BF1CD86F}"/>
+  <autoFilter ref="A1:BQ54" xr:uid="{C7FAA63B-DEDB-48F1-9CCA-3BF0BF1CD86F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BQ57">
+      <sortCondition ref="A1:A54"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H144">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -13072,9 +13087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E6A3B1-EAED-4ECB-AFB5-BA571537CD90}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A50" sqref="A50"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13145,12 +13160,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13159,9 +13172,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -13169,7 +13180,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -13182,66 +13193,64 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -13265,31 +13274,29 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+        <v>213</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -13305,37 +13312,37 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -13348,7 +13355,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -13357,7 +13366,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -13370,9 +13379,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -13381,37 +13388,39 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4">
         <v>1</v>
       </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -13425,10 +13434,12 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -13438,69 +13449,73 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+        <v>169</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -13511,29 +13526,29 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
+        <v>171</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -13553,9 +13568,11 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -13573,10 +13590,12 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -13584,7 +13603,9 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -13593,9 +13614,11 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -13613,11 +13636,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -13633,17 +13658,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -13657,7 +13678,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -13666,15 +13687,13 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -13683,7 +13702,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -13703,7 +13722,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -13723,22 +13742,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -13747,11 +13766,9 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -13760,9 +13777,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -13771,17 +13786,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -13795,7 +13806,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -13817,7 +13828,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -13841,7 +13852,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -13865,12 +13876,12 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4">
         <v>1</v>
       </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -13878,7 +13889,9 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -13887,12 +13900,12 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -13903,20 +13916,18 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4">
-        <v>1</v>
-      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="4">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -13933,35 +13944,33 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3">
         <v>1</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -13972,20 +13981,22 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4">
+      <c r="C39" s="4">
         <v>1</v>
       </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -14001,12 +14012,12 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4">
+        <v>27</v>
+      </c>
+      <c r="B40" s="4">
         <v>1</v>
       </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -14015,7 +14026,9 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -14023,15 +14036,17 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4">
+        <v>35</v>
+      </c>
+      <c r="B41" s="4">
         <v>1</v>
       </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -14045,45 +14060,47 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4">
+        <v>170</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="4">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
         <v>1</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -14091,17 +14108,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -14115,12 +14128,12 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4">
         <v>1</v>
       </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -14137,12 +14150,12 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -14151,7 +14164,9 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -14159,17 +14174,15 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4">
+        <v>159</v>
+      </c>
+      <c r="B47" s="4">
         <v>1</v>
       </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -14178,12 +14191,14 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
+      <c r="O47" s="4">
+        <v>1</v>
+      </c>
       <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -14192,222 +14207,222 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1</v>
-      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="3">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4">
         <v>1</v>
       </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3">
-        <v>1</v>
-      </c>
-      <c r="P52" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3">
+        <v>38</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4">
         <v>1</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3">
+        <v>20</v>
+      </c>
+      <c r="B54" s="4">
         <v>1</v>
       </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3">
+        <v>162</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4">
+        <v>1</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
+        <v>161</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4">
         <v>1</v>
       </c>
-      <c r="F56" s="3">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4">
         <v>1</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
+      <c r="P56" s="4"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -15976,6 +15991,11 @@
       <c r="P144" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{B7E6A3B1-EAED-4ECB-AFB5-BA571537CD90}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P57">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16079,7 +16099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1C1-55C1-4184-A6EE-5009BC32707E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -16155,8 +16175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DB3A21-6E97-43C0-9768-D0796C62C1D9}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16183,7 +16203,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -16191,7 +16211,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -16199,71 +16219,79 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="390" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>191</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>187</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -16271,7 +16299,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -16279,19 +16307,19 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>194</v>
+      <c r="C13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -16299,7 +16327,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -16307,43 +16335,51 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -16351,7 +16387,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -16359,59 +16395,57 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -16419,7 +16453,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -16427,23 +16461,31 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -16451,19 +16493,19 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -16471,37 +16513,35 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -16509,25 +16549,23 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>200</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -16535,7 +16573,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -16543,47 +16581,51 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>202</v>
+        <v>170</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -16591,7 +16633,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -16599,81 +16641,71 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>214</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -16681,42 +16713,39 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{43DB3A21-6E97-43C0-9768-D0796C62C1D9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D57">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{F4C5002B-4D4E-44DF-92F8-067F77645455}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{BACC756F-19DA-4B1C-9E12-0747B1CAABDD}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{D84AE9F0-F152-4207-8B06-9AB57F5C56B4}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{3FD358A9-4820-4EA4-8811-EA968F4FD6B2}"/>
-    <hyperlink ref="D32" r:id="rId5" xr:uid="{19B9FE21-4587-4894-8D89-CB23DADDF355}"/>
-    <hyperlink ref="D43" r:id="rId6" xr:uid="{07B80ECB-0CB9-42CB-85EB-81F2C72E2BE2}"/>
-    <hyperlink ref="D48" r:id="rId7" xr:uid="{5BDB33EF-5D25-4A2A-AE66-6E535BB2AB15}"/>
-    <hyperlink ref="D57" r:id="rId8" xr:uid="{A1D21DCA-8992-4109-A027-BC3EF09820CB}"/>
-    <hyperlink ref="D54" r:id="rId9" xr:uid="{7460DF6A-5F37-46B5-B4BD-49D04167EF8B}"/>
-    <hyperlink ref="D51" r:id="rId10" xr:uid="{A09BB8BD-7C80-4570-9EEF-062801EFDD9C}"/>
-    <hyperlink ref="D36" r:id="rId11" xr:uid="{1AB4F8DF-4D5D-4363-BD40-374FF347CF4E}"/>
-    <hyperlink ref="D53" r:id="rId12" xr:uid="{6BEED4DE-88A7-485A-ACD6-FD3720C7C78B}"/>
+    <hyperlink ref="D23" r:id="rId1" xr:uid="{F4C5002B-4D4E-44DF-92F8-067F77645455}"/>
+    <hyperlink ref="D44" r:id="rId2" xr:uid="{BACC756F-19DA-4B1C-9E12-0747B1CAABDD}"/>
+    <hyperlink ref="D51" r:id="rId3" xr:uid="{D84AE9F0-F152-4207-8B06-9AB57F5C56B4}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{3FD358A9-4820-4EA4-8811-EA968F4FD6B2}"/>
+    <hyperlink ref="D35" r:id="rId5" xr:uid="{19B9FE21-4587-4894-8D89-CB23DADDF355}"/>
+    <hyperlink ref="D29" r:id="rId6" xr:uid="{07B80ECB-0CB9-42CB-85EB-81F2C72E2BE2}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{5BDB33EF-5D25-4A2A-AE66-6E535BB2AB15}"/>
+    <hyperlink ref="D19" r:id="rId8" xr:uid="{A1D21DCA-8992-4109-A027-BC3EF09820CB}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{7460DF6A-5F37-46B5-B4BD-49D04167EF8B}"/>
+    <hyperlink ref="D48" r:id="rId10" xr:uid="{A09BB8BD-7C80-4570-9EEF-062801EFDD9C}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{1AB4F8DF-4D5D-4363-BD40-374FF347CF4E}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{6BEED4DE-88A7-485A-ACD6-FD3720C7C78B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
